--- a/docs/group_code_format_characters.xlsx
+++ b/docs/group_code_format_characters.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="121">
   <si>
     <t>A</t>
   </si>
@@ -291,9 +291,6 @@
     <t>HI</t>
   </si>
   <si>
-    <t>HJ</t>
-  </si>
-  <si>
     <t>IA</t>
   </si>
   <si>
@@ -379,13 +376,16 @@
   </si>
   <si>
     <t>ZA</t>
+  </si>
+  <si>
+    <t>JJ</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -393,8 +393,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -413,8 +421,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -437,11 +451,101 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -450,6 +554,24 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -751,10 +873,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AG20"/>
+  <dimension ref="A1:AG24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V17" sqref="V17"/>
+      <selection activeCell="Y4" sqref="Y4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -791,872 +913,938 @@
     <col min="30" max="30" width="5.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:33" ht="15.75" thickBot="1"/>
+    <row r="2" spans="1:33">
+      <c r="D2" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M2" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" ht="14.25" customHeight="1" thickBot="1">
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>2</v>
+      </c>
+      <c r="F3" s="5">
+        <v>3</v>
+      </c>
+      <c r="G3" s="5">
+        <v>4</v>
+      </c>
+      <c r="H3" s="5">
+        <v>5</v>
+      </c>
+      <c r="I3" s="5">
+        <v>6</v>
+      </c>
+      <c r="J3" s="5">
+        <v>7</v>
+      </c>
+      <c r="K3" s="5">
+        <v>8</v>
+      </c>
+      <c r="L3" s="5">
+        <v>9</v>
+      </c>
+      <c r="M3" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="A5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C1" s="1"/>
-      <c r="D1" s="2" t="s">
+      <c r="C5" s="1"/>
+      <c r="D5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2" t="s">
+      <c r="F5" s="1"/>
+      <c r="G5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="I1" s="1"/>
-      <c r="J1" s="2" t="s">
+      <c r="I5" s="1"/>
+      <c r="J5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="2" t="s">
+      <c r="L5" s="1"/>
+      <c r="M5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="S5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="W5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Y5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="Z5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AB5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AC5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AF5" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AG5" s="2" t="s">
         <v>51</v>
-      </c>
-    </row>
-    <row r="2" spans="1:33">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1"/>
-      <c r="D2" s="3">
-        <v>11</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1"/>
-      <c r="G2" s="3">
-        <v>21</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="3">
-        <v>31</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="3">
-        <v>41</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="P2" s="3">
-        <v>51</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="S2" s="3">
-        <v>61</v>
-      </c>
-      <c r="T2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="V2" s="3">
-        <v>71</v>
-      </c>
-      <c r="W2" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>81</v>
-      </c>
-      <c r="Z2" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="AB2" s="3">
-        <v>91</v>
-      </c>
-      <c r="AC2" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="AF2" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG2" s="3">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:33">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="3">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1"/>
-      <c r="G3" s="3">
-        <v>22</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="3">
-        <v>32</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="3">
-        <v>42</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="P3" s="3">
-        <v>52</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="S3" s="3">
-        <v>62</v>
-      </c>
-      <c r="T3" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="V3" s="3">
-        <v>72</v>
-      </c>
-      <c r="W3" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>82</v>
-      </c>
-      <c r="Z3" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="AB3" s="3">
-        <v>92</v>
-      </c>
-      <c r="AC3" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="AF3" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="AG3" s="3">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="3">
-        <v>13</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3">
-        <v>23</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="3">
-        <v>33</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="3">
-        <v>43</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="P4" s="3">
-        <v>53</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="S4" s="3">
-        <v>63</v>
-      </c>
-      <c r="T4" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="V4" s="3">
-        <v>73</v>
-      </c>
-      <c r="W4" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>83</v>
-      </c>
-      <c r="Z4" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="AB4" s="3">
-        <v>93</v>
-      </c>
-      <c r="AC4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="AF4" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG4" s="3">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="5" spans="1:33">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="1"/>
-      <c r="D5" s="3">
-        <v>14</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="1"/>
-      <c r="G5" s="3">
-        <v>24</v>
-      </c>
-      <c r="H5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="1"/>
-      <c r="J5" s="3">
-        <v>34</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="3">
-        <v>44</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="P5" s="3">
-        <v>54</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="S5" s="3">
-        <v>64</v>
-      </c>
-      <c r="T5" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="V5" s="3">
-        <v>74</v>
-      </c>
-      <c r="W5" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>84</v>
-      </c>
-      <c r="Z5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="AB5" s="3">
-        <v>94</v>
-      </c>
-      <c r="AC5" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="AF5" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG5" s="3">
-        <v>401</v>
       </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="3">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" s="1"/>
       <c r="G6" s="3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="I6" s="1"/>
       <c r="J6" s="3">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="L6" s="1"/>
       <c r="M6" s="3">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="P6" s="3">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="Q6" s="3" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="S6" s="3">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="T6" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="V6" s="3">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="W6" s="3" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Y6" s="3">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="AB6" s="3">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="AC6" s="3" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="AF6" s="3" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AG6" s="3">
-        <v>501</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:33">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" s="1"/>
       <c r="D7" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="3">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="3">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="L7" s="1"/>
       <c r="M7" s="3">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="P7" s="3">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="S7" s="3">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="T7" s="3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="V7" s="3">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="W7" s="3" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="Y7" s="3">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="AB7" s="3">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AC7" s="3" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="AF7" s="3" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="AG7" s="3">
-        <v>601</v>
+        <v>201</v>
       </c>
     </row>
     <row r="8" spans="1:33">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1"/>
       <c r="G8" s="3">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="3">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="L8" s="1"/>
       <c r="M8" s="3">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="N8" s="3" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P8" s="3">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="Q8" s="3" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="S8" s="3">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="T8" s="3" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="V8" s="3">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="W8" s="3" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="Y8" s="3">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="AB8" s="3">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AC8" s="3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="AF8" s="3" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="AG8" s="3">
-        <v>701</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:33">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="C9" s="1"/>
       <c r="D9" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="3">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="3">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="L9" s="1"/>
       <c r="M9" s="3">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="N9" s="3" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="P9" s="3">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="Q9" s="3" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="S9" s="3">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="T9" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="V9" s="3">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="W9" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Y9" s="3">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AB9" s="3">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AC9" s="3" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="AF9" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="AG9" s="3">
-        <v>801</v>
+        <v>401</v>
       </c>
     </row>
     <row r="10" spans="1:33">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="3">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="3">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="L10" s="1"/>
       <c r="M10" s="3">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="N10" s="3" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="P10" s="3">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="S10" s="3">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="T10" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="V10" s="3">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="W10" s="3" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="Y10" s="3">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AB10" s="3">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AC10" s="3" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AF10" s="3" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
       <c r="AG10" s="3">
-        <v>901</v>
+        <v>501</v>
       </c>
     </row>
     <row r="11" spans="1:33">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C11" s="1"/>
       <c r="D11" s="3">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I11" s="1"/>
       <c r="J11" s="3">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="L11" s="1"/>
       <c r="M11" s="3">
+        <v>46</v>
+      </c>
+      <c r="N11" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="P11" s="3">
+        <v>56</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="S11" s="3">
+        <v>66</v>
+      </c>
+      <c r="T11" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="V11" s="3">
+        <v>76</v>
+      </c>
+      <c r="W11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>86</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>96</v>
+      </c>
+      <c r="AC11" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="AF11" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="A12" s="3">
+        <v>7</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="3">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="3">
+        <v>27</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="3">
+        <v>37</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="L12" s="1"/>
+      <c r="M12" s="3">
+        <v>47</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="P12" s="3">
+        <v>57</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="S12" s="3">
+        <v>67</v>
+      </c>
+      <c r="T12" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="V12" s="3">
+        <v>77</v>
+      </c>
+      <c r="W12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>87</v>
+      </c>
+      <c r="Z12" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>97</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="AF12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="A13" s="3">
+        <v>8</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="3">
+        <v>18</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="3">
+        <v>28</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="3">
+        <v>38</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L13" s="1"/>
+      <c r="M13" s="3">
+        <v>48</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="P13" s="3">
+        <v>58</v>
+      </c>
+      <c r="Q13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="S13" s="3">
+        <v>68</v>
+      </c>
+      <c r="T13" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="V13" s="3">
+        <v>78</v>
+      </c>
+      <c r="W13" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>88</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>98</v>
+      </c>
+      <c r="AC13" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="AF13" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="A14" s="3">
+        <v>9</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1"/>
+      <c r="D14" s="3">
+        <v>19</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="3">
+        <v>29</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="3">
+        <v>39</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L14" s="1"/>
+      <c r="M14" s="3">
+        <v>49</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P14" s="3">
+        <v>59</v>
+      </c>
+      <c r="Q14" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="S14" s="3">
+        <v>69</v>
+      </c>
+      <c r="T14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="V14" s="3">
+        <v>79</v>
+      </c>
+      <c r="W14" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>89</v>
+      </c>
+      <c r="Z14" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>99</v>
+      </c>
+      <c r="AC14" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF14" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="A15" s="3">
+        <v>10</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1"/>
+      <c r="D15" s="3">
+        <v>20</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="3">
+        <v>30</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="3">
+        <v>40</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="1"/>
+      <c r="M15" s="3">
         <v>50</v>
       </c>
-      <c r="N11" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" s="3">
+      <c r="N15" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P15" s="3">
         <v>60</v>
       </c>
-      <c r="Q11" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="S11" s="3">
+      <c r="Q15" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="S15" s="3">
         <v>70</v>
       </c>
-      <c r="T11" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="V11" s="3">
+      <c r="T15" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="V15" s="3">
         <v>80</v>
       </c>
-      <c r="W11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="Y11" s="3">
+      <c r="W15" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="Z11" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB11" s="3">
+      <c r="Y15" s="3">
+        <v>90</v>
+      </c>
+      <c r="Z15" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="AC11" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="AF11" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG11" s="3">
+      <c r="AB15" s="3">
+        <v>100</v>
+      </c>
+      <c r="AC15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="AF15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG15" s="3">
         <v>1001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:33">
-      <c r="AF12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="AG12" s="3">
-        <v>1101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33">
-      <c r="AF13" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="AG13" s="3">
-        <v>1201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33">
-      <c r="AF14" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="AG14" s="3">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33">
-      <c r="AF15" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="AG15" s="3">
-        <v>1401</v>
       </c>
     </row>
     <row r="16" spans="1:33">
       <c r="AF16" s="3" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AG16" s="3">
-        <v>1501</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="17" spans="32:33">
       <c r="AF17" s="3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AG17" s="3">
-        <v>1601</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="18" spans="32:33">
       <c r="AF18" s="3" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="AG18" s="3">
-        <v>1701</v>
+        <v>1301</v>
       </c>
     </row>
     <row r="19" spans="32:33">
       <c r="AF19" s="3" t="s">
-        <v>102</v>
+        <v>116</v>
       </c>
       <c r="AG19" s="3">
-        <v>1801</v>
+        <v>1401</v>
       </c>
     </row>
     <row r="20" spans="32:33">
       <c r="AF20" s="3" t="s">
-        <v>103</v>
+        <v>117</v>
       </c>
       <c r="AG20" s="3">
+        <v>1501</v>
+      </c>
+    </row>
+    <row r="21" spans="32:33">
+      <c r="AF21" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="AG21" s="3">
+        <v>1601</v>
+      </c>
+    </row>
+    <row r="22" spans="32:33">
+      <c r="AF22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="AG22" s="3">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="23" spans="32:33">
+      <c r="AF23" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="AG23" s="3">
+        <v>1801</v>
+      </c>
+    </row>
+    <row r="24" spans="32:33">
+      <c r="AF24" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="AG24" s="3">
         <v>1802</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
